--- a/data/costassumption0912.xlsx
+++ b/data/costassumption0912.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\langzx\Desktop\github\DCM\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{57496D03-E3AD-43CE-A291-48DB387A1A10}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18001" windowHeight="10996"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="18000" windowHeight="10995"/>
   </bookViews>
   <sheets>
     <sheet name="costassumption" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -718,7 +717,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -833,6 +832,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -878,7 +892,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -886,6 +900,7 @@
     <xf numFmtId="8" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="8" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1243,26 +1258,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.19921875" customWidth="1"/>
-    <col min="2" max="2" width="21.86328125" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.53125" customWidth="1"/>
-    <col min="5" max="5" width="9.06640625" style="3"/>
-    <col min="6" max="6" width="13.53125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="9.9296875" customWidth="1"/>
-    <col min="8" max="8" width="15.73046875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="12.796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.1328125" customWidth="1"/>
-    <col min="16" max="16" width="31.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="5" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" customWidth="1"/>
+    <col min="16" max="16" width="31.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1287,14 +1303,14 @@
       <c r="I1" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1322,7 +1338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>7</v>
       </c>
@@ -1349,8 +1365,8 @@
       <c r="K3" t="s">
         <v>56</v>
       </c>
-      <c r="L3">
-        <v>10.1</v>
+      <c r="L3" s="7">
+        <v>10</v>
       </c>
       <c r="M3">
         <v>24.957604999999997</v>
@@ -1361,7 +1377,7 @@
       <c r="P3" t="s">
         <v>56</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="7">
         <v>70</v>
       </c>
       <c r="R3">
@@ -1372,7 +1388,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -1402,7 +1418,7 @@
       <c r="L4">
         <v>4.9212600000000002</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="7">
         <v>1.5</v>
       </c>
       <c r="N4" t="s">
@@ -1423,7 +1439,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>11</v>
       </c>
@@ -1473,7 +1489,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1488,19 +1504,19 @@
       </c>
       <c r="E7" s="3">
         <f>0.5625* 10000*L3</f>
-        <v>56812.5</v>
+        <v>56250</v>
       </c>
       <c r="F7" s="3">
         <f>D7*E7*M4*L13</f>
-        <v>349396.87499999994</v>
+        <v>345937.49999999994</v>
       </c>
       <c r="H7" s="5">
         <f>0.5625*10000*Q3</f>
         <v>393750</v>
       </c>
       <c r="I7" s="5">
-        <f>D7*F7</f>
-        <v>1432527.1874999995</v>
+        <f>D7*H7</f>
+        <v>1614374.9999999998</v>
       </c>
       <c r="K7" t="s">
         <v>59</v>
@@ -1529,7 +1545,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>16</v>
       </c>
@@ -1572,7 +1588,7 @@
         <v>2.2600025197558469</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>18</v>
       </c>
@@ -1601,13 +1617,13 @@
       <c r="K9" t="s">
         <v>61</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="7">
         <v>0.85846104023385983</v>
       </c>
       <c r="P9" t="s">
         <v>62</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="7">
         <f>Q3+Q8</f>
         <v>72.260002519755844</v>
       </c>
@@ -1619,7 +1635,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>20</v>
       </c>
@@ -1631,11 +1647,11 @@
       </c>
       <c r="E10" s="3">
         <f>0.5625* 10000*L3</f>
-        <v>56812.5</v>
+        <v>56250</v>
       </c>
       <c r="F10" s="3">
         <f>D10*E10</f>
-        <v>186401.8125</v>
+        <v>184556.25</v>
       </c>
       <c r="H10" s="5">
         <f>0.5625*10000*Q3</f>
@@ -1648,7 +1664,7 @@
       <c r="K10" t="s">
         <v>62</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="7">
         <v>10.958461040233859</v>
       </c>
       <c r="M10">
@@ -1664,7 +1680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1688,10 +1704,11 @@
         <v>1</v>
       </c>
       <c r="I12" s="5">
+        <f>D12*H12</f>
         <v>2000</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>25</v>
       </c>
@@ -1712,22 +1729,23 @@
         <v>1</v>
       </c>
       <c r="I13" s="5">
+        <f>D13*H13</f>
         <v>3500</v>
       </c>
       <c r="K13" t="s">
         <v>63</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="7">
         <v>1</v>
       </c>
       <c r="P13" t="s">
         <v>63</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -1767,7 +1785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>30</v>
       </c>
@@ -1804,7 +1822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>32</v>
       </c>
@@ -1843,7 +1861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>34</v>
       </c>
@@ -1880,7 +1898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>36</v>
       </c>
@@ -1917,7 +1935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -1937,10 +1955,17 @@
         <f>D21*E21</f>
         <v>200</v>
       </c>
+      <c r="H21" s="5">
+        <v>2</v>
+      </c>
+      <c r="I21" s="5">
+        <f>D21*H21</f>
+        <v>200</v>
+      </c>
       <c r="K21" t="s">
         <v>69</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="7">
         <v>1</v>
       </c>
       <c r="P21" t="s">
@@ -1951,7 +1976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>41</v>
       </c>
@@ -1968,6 +1993,13 @@
         <f t="shared" ref="F22:F28" si="4">D22*E22</f>
         <v>100</v>
       </c>
+      <c r="H22" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="I22" s="5">
+        <f t="shared" ref="I22:I28" si="5">D22*H22</f>
+        <v>100</v>
+      </c>
       <c r="K22" t="s">
         <v>70</v>
       </c>
@@ -1981,7 +2013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>43</v>
       </c>
@@ -1998,6 +2030,13 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="H23" s="5">
+        <v>0</v>
+      </c>
+      <c r="I23" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="K23" t="s">
         <v>71</v>
       </c>
@@ -2011,7 +2050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>45</v>
       </c>
@@ -2028,6 +2067,13 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="H24" s="5">
+        <v>0</v>
+      </c>
+      <c r="I24" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="K24" t="s">
         <v>72</v>
       </c>
@@ -2041,7 +2087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>47</v>
       </c>
@@ -2058,6 +2104,13 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="H25" s="5">
+        <v>0</v>
+      </c>
+      <c r="I25" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="K25" t="s">
         <v>73</v>
       </c>
@@ -2065,7 +2118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>49</v>
       </c>
@@ -2082,6 +2135,13 @@
         <f t="shared" si="4"/>
         <v>600</v>
       </c>
+      <c r="H26" s="5">
+        <v>4</v>
+      </c>
+      <c r="I26" s="5">
+        <f t="shared" si="5"/>
+        <v>600</v>
+      </c>
       <c r="K26" t="s">
         <v>74</v>
       </c>
@@ -2089,7 +2149,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>51</v>
       </c>
@@ -2106,6 +2166,13 @@
         <f t="shared" si="4"/>
         <v>250</v>
       </c>
+      <c r="H27" s="5">
+        <v>2</v>
+      </c>
+      <c r="I27" s="5">
+        <f t="shared" si="5"/>
+        <v>250</v>
+      </c>
       <c r="K27" t="s">
         <v>40</v>
       </c>
@@ -2119,7 +2186,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>53</v>
       </c>
@@ -2136,6 +2203,13 @@
         <f t="shared" si="4"/>
         <v>250</v>
       </c>
+      <c r="H28" s="5">
+        <v>2</v>
+      </c>
+      <c r="I28" s="5">
+        <f t="shared" si="5"/>
+        <v>250</v>
+      </c>
       <c r="K28" t="s">
         <v>75</v>
       </c>
@@ -2149,7 +2223,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>90</v>
       </c>
@@ -2157,6 +2231,10 @@
         <f>SUM(F21:F28)</f>
         <v>1400</v>
       </c>
+      <c r="I29" s="5">
+        <f>SUM(I21:I28)</f>
+        <v>1400</v>
+      </c>
       <c r="K29" t="s">
         <v>76</v>
       </c>
@@ -2170,7 +2248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>91</v>
       </c>
@@ -2179,6 +2257,10 @@
         <v>44932.397575686911</v>
       </c>
       <c r="G30" s="2"/>
+      <c r="I30" s="6">
+        <f>PV(Q37,50,-I29,0)</f>
+        <v>44932.397575686911</v>
+      </c>
       <c r="K30" t="s">
         <v>77</v>
       </c>
@@ -2192,7 +2274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="K31" t="s">
         <v>78</v>
       </c>
@@ -2206,18 +2288,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>92</v>
       </c>
       <c r="F32" s="4">
         <f>SUM(F2:F19) + F30</f>
-        <v>787957.78646587278</v>
+        <v>782652.84896587278</v>
       </c>
       <c r="G32" s="2"/>
       <c r="I32" s="6">
         <f>SUM(I2:I19) + F30</f>
-        <v>4044737.7935088244</v>
+        <v>4226585.6060088249</v>
       </c>
       <c r="K32" t="s">
         <v>54</v>
@@ -2232,11 +2314,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>93</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="7">
         <v>3.1157918907882748E-2</v>
       </c>
       <c r="K33" t="s">
@@ -2252,32 +2334,32 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>94</v>
       </c>
       <c r="F34" s="4">
         <f>F32*C33</f>
-        <v>24551.124813538456</v>
+        <v>24385.834001102066</v>
       </c>
       <c r="G34" s="2"/>
       <c r="I34" s="6">
         <f>I32*C33</f>
-        <v>126025.61217379654</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.45">
+        <v>131691.61156924744</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>95</v>
       </c>
       <c r="F35" s="4">
         <f>F34/M3</f>
-        <v>983.71317334088985</v>
+        <v>977.0903097914271</v>
       </c>
       <c r="G35" s="2"/>
       <c r="I35" s="6">
         <f>I34/R3</f>
-        <v>728.58335047736523</v>
+        <v>761.33980967747914</v>
       </c>
       <c r="K35" t="s">
         <v>80</v>
@@ -2286,47 +2368,47 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="K36" t="s">
         <v>81</v>
       </c>
-      <c r="L36">
+      <c r="L36" s="7">
         <v>50</v>
       </c>
       <c r="P36" t="s">
         <v>81</v>
       </c>
-      <c r="Q36">
+      <c r="Q36" s="7">
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>96</v>
       </c>
       <c r="F37" s="4">
         <f>F34/L3</f>
-        <v>2430.8044369840054</v>
+        <v>2438.5834001102066</v>
       </c>
       <c r="G37" s="2"/>
       <c r="I37" s="6">
         <f>I34/Q3</f>
-        <v>1800.3658881970935</v>
+        <v>1881.3087367035348</v>
       </c>
       <c r="K37" t="s">
         <v>82</v>
       </c>
-      <c r="L37">
+      <c r="L37" s="7">
         <v>1.9E-2</v>
       </c>
       <c r="P37" t="s">
         <v>82</v>
       </c>
-      <c r="Q37">
+      <c r="Q37" s="7">
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="K38" t="s">
         <v>83</v>
       </c>
@@ -2336,6 +2418,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>